--- a/results.xlsx
+++ b/results.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NN_Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\nn_benching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEFA1F3E-39D6-4C9D-B28E-9F5800605FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C123672-12B3-4241-8724-C9DEBC77F608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{D6B6FCF4-05A0-4EAD-AC8E-0A048FF8CFD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D6B6FCF4-05A0-4EAD-AC8E-0A048FF8CFD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Inference Times" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
-  <si>
-    <t>NA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>alexnet</t>
   </si>
@@ -112,9 +108,6 @@
     <t>wide_resne101_2</t>
   </si>
   <si>
-    <t>FLOPs</t>
-  </si>
-  <si>
     <t>#Params</t>
   </si>
   <si>
@@ -139,7 +132,70 @@
     <t>CPU Inference</t>
   </si>
   <si>
-    <t>1080 Ti Inference</t>
+    <t>1080 Ti Inference (ms)</t>
+  </si>
+  <si>
+    <t>Titan X Inference (ms)</t>
+  </si>
+  <si>
+    <t>K40 Inference (ms)</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>V100 Inference (ms)</t>
+  </si>
+  <si>
+    <t>#FLOPS</t>
+  </si>
+  <si>
+    <t>Intel Xeon Gold 6126 Inference (ms)</t>
+  </si>
+  <si>
+    <t>SERVER CPU 2</t>
+  </si>
+  <si>
+    <t>DESKTOP CPU 1</t>
+  </si>
+  <si>
+    <t>DESKTOP CPU 2</t>
+  </si>
+  <si>
+    <t>deeplabv3_resnet50</t>
+  </si>
+  <si>
+    <t>deeplabv3_resnet101</t>
+  </si>
+  <si>
+    <t>fcn_resnet50</t>
+  </si>
+  <si>
+    <t>fcn_resnet101</t>
+  </si>
+  <si>
+    <t>efficientnet_b0</t>
+  </si>
+  <si>
+    <t>efficientnet_b1</t>
+  </si>
+  <si>
+    <t>efficientnet_b2</t>
+  </si>
+  <si>
+    <t>efficientnet_b3</t>
+  </si>
+  <si>
+    <t>efficientnet_b4</t>
+  </si>
+  <si>
+    <t>efficientnet_b5</t>
+  </si>
+  <si>
+    <t>efficientnet_b6</t>
+  </si>
+  <si>
+    <t>efficientnet_b7</t>
   </si>
 </sst>
 </file>
@@ -171,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,25 +263,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,516 +586,946 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA2CF01-603C-4244-A836-EBB98EE5D735}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>38.447992525410299</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>0.95429774829934499</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1.2550786838735399</v>
+      </c>
+      <c r="H2">
+        <v>0.96864945098036304</v>
+      </c>
+      <c r="I2">
+        <v>0.79371013405359203</v>
+      </c>
+      <c r="J2">
+        <v>773313856</v>
+      </c>
+      <c r="K2">
+        <v>61100840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>144.19164425970399</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>18.667536200880299</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>27.9943491200479</v>
+      </c>
+      <c r="H3">
+        <v>22.579256375350099</v>
+      </c>
+      <c r="I3">
+        <v>15.5736544973989</v>
+      </c>
+      <c r="J3">
+        <v>2898381312</v>
+      </c>
+      <c r="K3">
+        <v>7978856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>128.09415084793901</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>26.1962228855541</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>32.583985849139601</v>
+      </c>
+      <c r="H4">
+        <v>25.667802298919501</v>
+      </c>
+      <c r="I4">
+        <v>19.0380607138855</v>
+      </c>
+      <c r="J4">
+        <v>2898381312</v>
+      </c>
+      <c r="K4">
+        <v>7978856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>308.04229186874699</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>26.002249171268399</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>38.612657799119503</v>
+      </c>
+      <c r="H5">
+        <v>45.576863387354997</v>
+      </c>
+      <c r="I5">
+        <v>21.081315813925599</v>
+      </c>
+      <c r="J5">
+        <v>7848607744</v>
+      </c>
+      <c r="K5">
+        <v>28681000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>270.91002872068799</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>36.138445470988401</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>45.454712972789203</v>
+      </c>
+      <c r="H6">
+        <v>45.562460107643098</v>
+      </c>
+      <c r="I6">
+        <v>26.402897177270901</v>
+      </c>
+      <c r="J6">
+        <v>7848607744</v>
+      </c>
+      <c r="K6">
+        <v>28681000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>229.50034741696601</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>32.166386228091199</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>48.621631408563303</v>
+      </c>
+      <c r="H7">
+        <v>43.683513035213899</v>
+      </c>
+      <c r="I7">
+        <v>26.879169635454101</v>
+      </c>
+      <c r="J7">
+        <v>4392688640</v>
+      </c>
+      <c r="K7">
+        <v>20013928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>222.39812866946701</v>
+      </c>
+      <c r="F8">
+        <v>46.342714813125298</v>
+      </c>
+      <c r="G8">
+        <v>57.403224724289501</v>
+      </c>
+      <c r="H8">
+        <v>44.484957325330001</v>
+      </c>
+      <c r="I8">
+        <v>34.330924374950001</v>
+      </c>
+      <c r="J8">
+        <v>4392688640</v>
+      </c>
+      <c r="K8">
+        <v>20013928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C8">
-        <v>46.342714813125298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B9">
         <v>85.426294309723701</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>9.3750138319327991</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>12.224183124849899</v>
+      </c>
+      <c r="H9">
+        <v>9.7885308355341696</v>
+      </c>
+      <c r="I9">
+        <v>6.3128457639055497</v>
+      </c>
+      <c r="J9">
+        <v>1512356096</v>
+      </c>
+      <c r="K9">
+        <v>13004888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>52.2652739779911</v>
+      </c>
+      <c r="F10">
+        <v>6.5507732220888597</v>
+      </c>
+      <c r="G10">
+        <v>8.9210429071628496</v>
+      </c>
+      <c r="H10">
+        <v>7.2819409219687703</v>
+      </c>
+      <c r="I10">
+        <v>4.4835372993197398</v>
+      </c>
+      <c r="J10">
+        <v>142659232</v>
+      </c>
+      <c r="K10">
+        <v>2220824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>47.581251406162302</v>
-      </c>
-      <c r="C10">
-        <v>6.5507732220888597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B11">
-        <v>52.2652739779911</v>
-      </c>
-      <c r="C11">
+        <v>79.652880814325698</v>
+      </c>
+      <c r="F11">
         <v>6.6647685994396602</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>8.9026984461784</v>
+      </c>
+      <c r="H11">
+        <v>7.3363241672669899</v>
+      </c>
+      <c r="I11">
+        <v>4.5211944461784697</v>
+      </c>
+      <c r="J11">
+        <v>337522432</v>
+      </c>
+      <c r="K11">
+        <v>4383312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>74.761892412164997</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>6.46760098199276</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>8.9519279019608007</v>
+      </c>
+      <c r="H12">
+        <v>7.2924495774309799</v>
+      </c>
+      <c r="I12">
+        <v>4.3974432496998599</v>
+      </c>
+      <c r="J12">
+        <v>328766720</v>
+      </c>
+      <c r="K12">
+        <v>3504872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>54.495572518607702</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>2.86315675830325</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>4.3501101336533896</v>
+      </c>
+      <c r="H13">
+        <v>3.3712997719087201</v>
+      </c>
+      <c r="I13">
+        <v>2.1847987194877598</v>
+      </c>
+      <c r="J13">
+        <v>1824545792</v>
+      </c>
+      <c r="K13">
+        <v>11689512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>96.515466272108995</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>4.9774866910764697</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>7.7715283693477604</v>
+      </c>
+      <c r="H14">
+        <v>5.8338830708282803</v>
+      </c>
+      <c r="I14">
+        <v>3.8222761992796999</v>
+      </c>
+      <c r="J14">
+        <v>3679251456</v>
+      </c>
+      <c r="K14">
+        <v>21797672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>111.086527723489</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>6.7509360360143402</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>10.674335338935499</v>
+      </c>
+      <c r="H15">
+        <v>8.5590753545418803</v>
+      </c>
+      <c r="I15">
+        <v>5.3494387082832899</v>
+      </c>
+      <c r="J15">
+        <v>4135790592</v>
+      </c>
+      <c r="K15">
+        <v>25557032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>182.31621090076001</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>13.2385538511405</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>20.652999681072401</v>
+      </c>
+      <c r="H16">
+        <v>16.476345335734099</v>
+      </c>
+      <c r="I16">
+        <v>10.7189878259304</v>
+      </c>
+      <c r="J16">
+        <v>7868483584</v>
+      </c>
+      <c r="K16">
+        <v>44549160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>325.626876968386</v>
       </c>
-      <c r="C17">
-        <v>19.381439828331299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>23.4410615814324</v>
+      </c>
+      <c r="G17">
+        <v>30.628664025610199</v>
+      </c>
+      <c r="H17">
+        <v>41.908427466586502</v>
+      </c>
+      <c r="I17">
+        <v>15.8904045490195</v>
+      </c>
+      <c r="J17">
+        <v>11605993472</v>
+      </c>
+      <c r="K17">
+        <v>60192808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>148.16483246218499</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>12.9787443945578</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>15.9017179511803</v>
+      </c>
+      <c r="H18">
+        <v>14.7030228083234</v>
+      </c>
+      <c r="I18">
+        <v>9.4445639799919796</v>
+      </c>
+      <c r="J18">
+        <v>4290232320</v>
+      </c>
+      <c r="K18">
+        <v>25028904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>488.06923498159102</v>
+      </c>
+      <c r="F19">
+        <v>26.515830532212899</v>
+      </c>
+      <c r="G19">
+        <v>33.971628137655102</v>
+      </c>
+      <c r="H19">
+        <v>48.108387438975598</v>
+      </c>
+      <c r="I19">
+        <v>21.065641347739</v>
+      </c>
+      <c r="J19">
+        <v>16541003776</v>
+      </c>
+      <c r="K19">
+        <v>88791336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C19">
-        <v>26.515830532212899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B20">
         <v>20.240724132453</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <v>8.8560292929171496</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>11.568757496198399</v>
+      </c>
+      <c r="H20">
+        <v>9.7420593917566691</v>
+      </c>
+      <c r="I20">
+        <v>6.1162549451780901</v>
+      </c>
+      <c r="J20">
+        <v>45596064</v>
+      </c>
+      <c r="K20">
+        <v>1366792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>33.129092272108799</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <v>9.0124303109243495</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>11.8990662132853</v>
+      </c>
+      <c r="H21">
+        <v>9.8100774677871296</v>
+      </c>
+      <c r="I21">
+        <v>6.2809625398159099</v>
+      </c>
+      <c r="J21">
+        <v>153732800</v>
+      </c>
+      <c r="K21">
+        <v>2278604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>41.809227701480502</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <v>2.6373162440976698</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>4.1533875578230699</v>
+      </c>
+      <c r="H22">
+        <v>3.4066941772708899</v>
+      </c>
+      <c r="I22">
+        <v>2.15462672468988</v>
+      </c>
+      <c r="J22">
+        <v>823440832</v>
+      </c>
+      <c r="K22">
+        <v>1248424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>24.7978097631051</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <v>2.6503467398959502</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>4.13371345618242</v>
+      </c>
+      <c r="H23">
+        <v>3.3629592569027702</v>
+      </c>
+      <c r="I23">
+        <v>2.1406206914765802</v>
+      </c>
+      <c r="J23">
+        <v>351911296</v>
+      </c>
+      <c r="K23">
+        <v>1235496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>348.273026342935</v>
       </c>
-      <c r="C24">
+      <c r="F24">
         <v>2.3394446594637501</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>3.4617990256102402</v>
+      </c>
+      <c r="H24">
+        <v>2.5952167118847198</v>
+      </c>
+      <c r="I24">
+        <v>1.7794433681472299</v>
+      </c>
+      <c r="J24">
+        <v>15661685760</v>
+      </c>
+      <c r="K24">
+        <v>138365984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>469.672888296118</v>
       </c>
-      <c r="C25">
+      <c r="F25">
         <v>2.7624482777110999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>4.0504061320527702</v>
+      </c>
+      <c r="H25">
+        <v>3.0574401760704402</v>
+      </c>
+      <c r="I25">
+        <v>2.0998707607042402</v>
+      </c>
+      <c r="J25">
+        <v>19830005760</v>
+      </c>
+      <c r="K25">
+        <v>143678240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>305.79541812405</v>
       </c>
-      <c r="C26">
+      <c r="F26">
         <v>8.0215366202480691</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>10.900377278911501</v>
+      </c>
+      <c r="H26">
+        <v>8.6063877306923295</v>
+      </c>
+      <c r="I26">
+        <v>5.3579572424969903</v>
+      </c>
+      <c r="J26">
+        <v>11457773568</v>
+      </c>
+      <c r="K26">
+        <v>68883240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>549.58720768307103</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <v>15.6732131928771</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="4" t="s">
+      <c r="G27">
+        <v>20.8544881960784</v>
+      </c>
+      <c r="H27">
+        <v>16.629771160464301</v>
+      </c>
+      <c r="I27">
+        <v>10.6473100516206</v>
+      </c>
+      <c r="J27">
+        <v>22840098816</v>
+      </c>
+      <c r="K27">
+        <v>126886696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>123.884093346138</v>
+      </c>
+      <c r="J28">
+        <v>29574784</v>
+      </c>
+      <c r="K28">
+        <v>1323016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>638.25682178191198</v>
+      </c>
+      <c r="J37">
+        <v>31417745408</v>
+      </c>
+      <c r="K37">
+        <v>39638868</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>479.86024903081301</v>
+      </c>
+      <c r="F39">
+        <v>7.9816246490595804</v>
+      </c>
+      <c r="J39">
+        <v>26586873856</v>
+      </c>
+      <c r="K39">
+        <v>32957012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>867.35038746738599</v>
+      </c>
+      <c r="J40">
+        <v>41517645824</v>
+      </c>
+      <c r="K40">
+        <v>51949140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="H57" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="I57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="3">
+        <f>AVERAGE(B2:B27)</f>
+        <v>185.89504007559907</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3">
+        <f>AVERAGE(F2:F27)</f>
+        <v>13.778636320635918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="2">
+        <f>B61-B62</f>
+        <v>529.34648355061802</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
+        <f>F61-F62</f>
+        <v>45.388417064825951</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <f>AVERAGE(B2:B27)</f>
-        <v>170.44716870443145</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C2:C27)</f>
-        <v>13.62249702243972</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B60" s="2">
+        <f>_xlfn.STDEV.P(B2:B27)</f>
+        <v>151.6510224151713</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2">
+        <f>_xlfn.STDEV.P(F2:F27)</f>
+        <v>11.852536853433548</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
-        <f>B32-B33</f>
-        <v>529.34648355061802</v>
-      </c>
-      <c r="C30" s="2">
-        <f>C32-C33</f>
-        <v>45.388417064825951</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <f>_xlfn.STDEV.P(B2:B27)</f>
-        <v>145.40505984128629</v>
-      </c>
-      <c r="C31" s="2">
-        <f>_xlfn.STDEV.P(C2:C27)</f>
-        <v>11.750521191625616</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="B61" s="3">
         <f>MAX(B2:B27)</f>
         <v>549.58720768307103</v>
       </c>
-      <c r="C32" s="3">
-        <f>MAX(C2:C27)</f>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3">
+        <f>MAX(F2:F27)</f>
         <v>46.342714813125298</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="3">
         <f>MIN(B2:B27)</f>
         <v>20.240724132453</v>
       </c>
-      <c r="C33" s="3">
-        <f>MIN(C2:C27)</f>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3">
+        <f>MIN(F2:F27)</f>
         <v>0.95429774829934499</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36">
-        <v>47.581251406162302</v>
-      </c>
-      <c r="C36">
-        <v>6.5507732220888597</v>
-      </c>
-      <c r="D36">
-        <v>142659232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37">
-        <v>52.2652739779911</v>
-      </c>
-      <c r="C37">
-        <v>6.6647685994396602</v>
-      </c>
-      <c r="D37">
-        <v>337522432</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38">
-        <v>74.761892412164997</v>
-      </c>
-      <c r="C38">
-        <v>6.46760098199276</v>
-      </c>
-      <c r="D38">
-        <v>328766720</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40">
-        <v>54.495572518607702</v>
-      </c>
-      <c r="C40">
-        <v>2.86315675830325</v>
-      </c>
-      <c r="D40">
-        <v>1824545792</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41">
-        <v>96.515466272108995</v>
-      </c>
-      <c r="C41">
-        <v>4.9774866910764697</v>
-      </c>
-      <c r="D41">
-        <v>3679251456</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42">
-        <v>111.086527723489</v>
-      </c>
-      <c r="C42">
-        <v>6.7509360360143402</v>
-      </c>
-      <c r="D42">
-        <v>4135790592</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43">
-        <v>182.31621090076001</v>
-      </c>
-      <c r="C43">
-        <v>13.2385538511405</v>
-      </c>
-      <c r="D43">
-        <v>7868483584</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44">
-        <v>325.626876968386</v>
-      </c>
-      <c r="C44">
-        <v>19.381439828331299</v>
-      </c>
-      <c r="D44">
-        <v>11605993472</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\nn_benching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C123672-12B3-4241-8724-C9DEBC77F608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680D662-9C1B-4E3C-8C60-DBA187061049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D6B6FCF4-05A0-4EAD-AC8E-0A048FF8CFD2}"/>
+    <workbookView xWindow="4665" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{D6B6FCF4-05A0-4EAD-AC8E-0A048FF8CFD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Inference Times" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,11 +274,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,24 +597,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA2CF01-603C-4244-A836-EBB98EE5D735}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -640,7 +649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +675,7 @@
         <v>61100840</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -692,7 +701,7 @@
         <v>7978856</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,7 +727,7 @@
         <v>7978856</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,7 +753,7 @@
         <v>28681000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,7 +779,7 @@
         <v>28681000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,7 +805,7 @@
         <v>20013928</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,7 +831,7 @@
         <v>20013928</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,7 +857,7 @@
         <v>13004888</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,7 +883,7 @@
         <v>2220824</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -900,7 +909,7 @@
         <v>4383312</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -926,7 +935,7 @@
         <v>3504872</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -952,7 +961,7 @@
         <v>11689512</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,7 +987,7 @@
         <v>21797672</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1013,7 @@
         <v>25557032</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>44549160</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>60192808</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,7 +1091,7 @@
         <v>25028904</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>88791336</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>1366792</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1169,7 @@
         <v>2278604</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>1248424</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>1235496</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1238,7 +1247,7 @@
         <v>138365984</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>143678240</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>68883240</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,51 +1325,144 @@
         <v>126886696</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <v>123.884093346138</v>
       </c>
-      <c r="J28">
-        <v>29574784</v>
+      <c r="F28">
+        <v>11.1746276002401</v>
+      </c>
+      <c r="G28">
+        <v>20.4856258835533</v>
+      </c>
+      <c r="H28">
+        <v>11.6101601916767</v>
+      </c>
+      <c r="J28" s="4">
+        <v>332069760</v>
       </c>
       <c r="K28">
         <v>1323016</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>15.730801102440999</v>
+      </c>
+      <c r="G29">
+        <v>28.9183147318927</v>
+      </c>
+      <c r="H29">
+        <v>16.460109679471699</v>
+      </c>
+      <c r="J29" s="4">
+        <v>449659520</v>
+      </c>
+      <c r="K29">
+        <v>1343048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>15.733345510204</v>
+      </c>
+      <c r="G30">
+        <v>28.867110552621</v>
+      </c>
+      <c r="H30">
+        <v>16.300956208883498</v>
+      </c>
+      <c r="J30" s="4">
+        <v>472536960</v>
+      </c>
+      <c r="K30">
+        <v>1476568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>17.8138328739496</v>
+      </c>
+      <c r="G31">
+        <v>32.814861529811601</v>
+      </c>
+      <c r="H31">
+        <v>18.222282973189301</v>
+      </c>
+      <c r="J31" s="4">
+        <v>620303040</v>
+      </c>
+      <c r="K31">
+        <v>1624296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>21.886404644257802</v>
+      </c>
+      <c r="G32">
+        <v>40.240047921168497</v>
+      </c>
+      <c r="H32">
+        <v>31.658265776201699</v>
+      </c>
+      <c r="J32" s="4">
+        <v>807259520</v>
+      </c>
+      <c r="K32">
+        <v>1918200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>26.985556392557001</v>
+      </c>
+      <c r="G33">
+        <v>49.948047434573802</v>
+      </c>
+      <c r="H33">
+        <v>42.658096031785497</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1100316160</v>
+      </c>
+      <c r="K33">
+        <v>2221736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>31.345812664665999</v>
+      </c>
+      <c r="G34">
+        <v>58.031846491796699</v>
+      </c>
+      <c r="K34">
+        <v>2529432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -1368,16 +1470,32 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F35" s="5">
+        <v>37.767045755902402</v>
+      </c>
+      <c r="G35" s="5">
+        <v>71.703431565825994</v>
+      </c>
+      <c r="K35">
+        <v>2871720</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37">
         <v>638.25682178191198</v>
       </c>
+      <c r="F37">
+        <v>7.4137103877549899</v>
+      </c>
+      <c r="G37">
+        <v>13.9809215842337</v>
+      </c>
+      <c r="H37">
+        <v>7.8177866990795897</v>
+      </c>
       <c r="J37">
         <v>31417745408</v>
       </c>
@@ -1385,12 +1503,27 @@
         <v>39638868</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>13.451112322128701</v>
+      </c>
+      <c r="G38">
+        <v>25.8550853733495</v>
+      </c>
+      <c r="H38">
+        <v>13.974496777510801</v>
+      </c>
+      <c r="J38">
+        <v>46348513280</v>
+      </c>
+      <c r="K38">
+        <v>58630996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -1398,7 +1531,13 @@
         <v>479.86024903081301</v>
       </c>
       <c r="F39">
-        <v>7.9816246490595804</v>
+        <v>6.4490924513805901</v>
+      </c>
+      <c r="G39">
+        <v>12.4217329879951</v>
+      </c>
+      <c r="H39">
+        <v>6.7765292941176201</v>
       </c>
       <c r="J39">
         <v>26586873856</v>
@@ -1407,21 +1546,30 @@
         <v>32957012</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B40">
         <v>867.35038746738599</v>
       </c>
+      <c r="F40">
+        <v>12.800786949980001</v>
+      </c>
+      <c r="G40">
+        <v>24.308182447378901</v>
+      </c>
+      <c r="H40">
+        <v>13.3578155142055</v>
+      </c>
       <c r="J40">
-        <v>41517645824</v>
+        <v>43372367872</v>
       </c>
       <c r="K40">
-        <v>51949140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54314344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>32</v>
@@ -1448,7 +1596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -1464,7 +1612,7 @@
         <v>13.778636320635918</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1628,7 @@
         <v>45.388417064825951</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1644,7 @@
         <v>11.852536853433548</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -1512,7 +1660,7 @@
         <v>46.342714813125298</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>30</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,37 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\nn_benching\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quaza\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680D662-9C1B-4E3C-8C60-DBA187061049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{215DC398-F5C7-4924-A14B-6B3A4E141FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{D6B6FCF4-05A0-4EAD-AC8E-0A048FF8CFD2}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inference Times" sheetId="1" r:id="rId1"/>
+    <sheet name="PLOTS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>Intel Xeon Gold 6126 Inference (ms)</t>
+  </si>
+  <si>
+    <t>AMD EPYC 7302 Inference (ms)</t>
+  </si>
+  <si>
+    <t>Intel i7-7700 Base Clock Inference (ms)</t>
+  </si>
+  <si>
+    <t>DESKTOP CPU 2</t>
+  </si>
+  <si>
+    <t>AVG CPU</t>
+  </si>
+  <si>
+    <t>1080 Ti Inference (ms)</t>
+  </si>
+  <si>
+    <t>Titan X Inference (ms)</t>
+  </si>
+  <si>
+    <t>K40 Inference (ms)</t>
+  </si>
+  <si>
+    <t>V100 Inference (ms)</t>
+  </si>
+  <si>
+    <t>AVG GPU</t>
+  </si>
+  <si>
+    <t>#FLOPS</t>
+  </si>
+  <si>
+    <t>#Params</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
   <si>
     <t>alexnet</t>
   </si>
@@ -61,6 +104,9 @@
   </si>
   <si>
     <t>mnasnet1_0</t>
+  </si>
+  <si>
+    <t>mobilenet_v2</t>
   </si>
   <si>
     <t>resnet18</t>
@@ -108,72 +154,6 @@
     <t>wide_resne101_2</t>
   </si>
   <si>
-    <t>#Params</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>RANGE</t>
-  </si>
-  <si>
-    <t>STDEV</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>mobilenet_v2</t>
-  </si>
-  <si>
-    <t>CPU Inference</t>
-  </si>
-  <si>
-    <t>1080 Ti Inference (ms)</t>
-  </si>
-  <si>
-    <t>Titan X Inference (ms)</t>
-  </si>
-  <si>
-    <t>K40 Inference (ms)</t>
-  </si>
-  <si>
-    <t>MODEL</t>
-  </si>
-  <si>
-    <t>V100 Inference (ms)</t>
-  </si>
-  <si>
-    <t>#FLOPS</t>
-  </si>
-  <si>
-    <t>Intel Xeon Gold 6126 Inference (ms)</t>
-  </si>
-  <si>
-    <t>SERVER CPU 2</t>
-  </si>
-  <si>
-    <t>DESKTOP CPU 1</t>
-  </si>
-  <si>
-    <t>DESKTOP CPU 2</t>
-  </si>
-  <si>
-    <t>deeplabv3_resnet50</t>
-  </si>
-  <si>
-    <t>deeplabv3_resnet101</t>
-  </si>
-  <si>
-    <t>fcn_resnet50</t>
-  </si>
-  <si>
-    <t>fcn_resnet101</t>
-  </si>
-  <si>
     <t>efficientnet_b0</t>
   </si>
   <si>
@@ -197,41 +177,83 @@
   <si>
     <t>efficientnet_b7</t>
   </si>
+  <si>
+    <t>deeplabv3_resnet50</t>
+  </si>
+  <si>
+    <t>deeplabv3_resnet101</t>
+  </si>
+  <si>
+    <t>fcn_resnet50</t>
+  </si>
+  <si>
+    <t>fcn_resnet101</t>
+  </si>
+  <si>
+    <t>CPU Inference</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -244,29 +266,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -274,19 +296,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -296,6 +389,3854 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>FLOPs vs Latency (ResNet on Xeon CPU)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19080">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$L$13:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1824545792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3679251456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4135790592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7868483584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11605993472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>54.495572518607702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.515466272108995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.086527723489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.31621090076001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325.626876968386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49AA-4E92-89FD-A24714EF95A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42220792"/>
+        <c:axId val="64953185"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42220792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>ResNet #FLOPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64953185"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64953185"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Xeon Inference (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42220792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>FLOPs vs Latency (ResNet on V100)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19080">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$L$13:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1824545792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3679251456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4135790592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7868483584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11605993472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4290232320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$J$13:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1847987194877598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8222761992796999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3494387082832899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.7189878259304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.8904045490195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4445639799919796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63E0-4E7C-A77F-CA8BCFCC0993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54651272"/>
+        <c:axId val="35042852"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54651272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>ResNet #FLOPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35042852"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="35042852"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>V100 Inference (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54651272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Flops vs Latency (EfficientNet on Xeon CPU) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19080">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$L$28:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4200000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9900000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19000000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$B$28:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>123.884093346138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173.11769361975101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186.37204630698699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.22679477492801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328.32962199680298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>496.556669158082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>665.40067127381496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>872.61483645393901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9BCA-4498-86D6-3E23DDE56221}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="95031626"/>
+        <c:axId val="31641399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="95031626"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>EfficientNet #FLOPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40208960964040802"/>
+              <c:y val="0.87875606875738099"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31641399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31641399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Xeon Inference (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95031626"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>FLOPs vs Latency (EfficientNet on V100)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19080">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$L$28:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4200000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9900000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19000000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$J$28:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.502676352303901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.395713817135899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0427086819358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.123228825106999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.1197150301794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.367724847345102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.9531382117726</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.489063712890101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAE6-4411-8335-983A2A8A787E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78910938"/>
+        <c:axId val="38785409"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78910938"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>EfficientNet #FLOPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38785409"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="38785409"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>V100 Inference (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78910938"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1800" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>FLOPs vs Latency (avg GPU)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$L$2:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>773313856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2898381312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2898381312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7848607744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7848607744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4392688640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4392688640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1512356096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142659232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>337522432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>328766720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1824545792</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3679251456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4135790592</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7868483584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11605993472</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4290232320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16541003776</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45596064</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153732800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>823440832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>351911296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15661685760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19830005760</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11457773568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22840098816</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1800000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4200000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9900000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19000000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$K$2:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.99293400430170997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.203699048419303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.871517936874675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.818271542917131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.389628932172897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.837675076830628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.6404553094237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.425143389055604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8093235876350553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8562464147658799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7773554277711003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1923413458382797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.601293582633053</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8334463594437524</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.271721673469351</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.967139405662152</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.257012283513372</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.415371864145648</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0707752815125779</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2506341329531718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0880061759703774</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0719100361144305</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5439759412764849</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9925413366346376</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2215647180872224</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.9511956502601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.943272506943501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.626234832735324</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.486030238411075</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.993551550514375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.976108342951846</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.739856176565354</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.999695317114671</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.793208504331623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6332-4061-957A-012AE5AFD988}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="32453926"/>
+        <c:axId val="62523287"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="32453926"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>#FLOPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62523287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="62523287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Inference Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32453926"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1800" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>FLOPs vs Latency (avg CPU)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$L$2:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>773313856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2898381312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2898381312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7848607744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7848607744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4392688640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4392688640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1512356096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142659232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>337522432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>328766720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1824545792</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3679251456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4135790592</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7868483584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11605993472</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4290232320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16541003776</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45596064</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153732800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>823440832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>351911296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15661685760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19830005760</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11457773568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22840098816</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1800000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4200000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9900000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19000000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$F$2:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>40.523620724817569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176.16711438276033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.86095093474168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>372.31765465579633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>348.75150269252299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>260.15512290710933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255.08180894323468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104.70972576560844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.56724723787913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156.82507968655443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140.55187662422145</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.59952703877137</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>129.55350270951382</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.98345139548599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250.80307598584236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>408.46867600678161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>181.83394956858169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>555.76661325282737</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.487375069060032</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.72381102315137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.113420234014541</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.764160271403632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>473.20246133632128</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>586.65254977510403</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>343.83269883318371</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>624.22558830855462</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>211.25448411514841</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>330.23220763621612</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>367.41126400420006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>483.13952689271582</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>712.24673646901965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1103.0498847224046</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1613.7834811447658</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2560.4733620892976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7C9-4E66-B4DC-ED4DBC728BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="89374009"/>
+        <c:axId val="31419012"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89374009"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>#FLOPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31419012"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31419012"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Inference (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89374009"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1800" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>FLOPs vs Latency (Xeon Gold)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19080">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$B$2:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>38.447992525410299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.19164425970399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.09415084793901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.04229186874699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270.91002872068799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>229.50034741696601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>222.39812866946701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.426294309723701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.2652739779911</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.652880814325698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.761892412164997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.495572518607702</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.515466272108995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111.086527723489</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182.31621090076001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>325.626876968386</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.16483246218499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>488.06923498159102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.240724132453</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.129092272108799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.809227701480502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.7978097631051</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>348.273026342935</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>469.672888296118</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>305.79541812405</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>549.58720768307103</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123.884093346138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>173.11769361975101</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>186.37204630698699</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>248.22679477492801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>328.32962199680298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>496.556669158082</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>665.40067127381496</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>872.61483645393901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$L$2:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>773313856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2898381312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2898381312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7848607744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7848607744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4392688640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4392688640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1512356096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142659232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>337522432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>328766720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1824545792</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3679251456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4135790592</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7868483584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11605993472</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4290232320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16541003776</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45596064</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153732800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>823440832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>351911296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15661685760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19830005760</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11457773568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22840098816</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1800000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4200000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9900000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19000000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-672C-4E4E-89D8-425E0492077C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="49266944"/>
+        <c:axId val="41475164"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49266944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>#FLOPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41475164"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41475164"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Inference (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49266944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1800" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>FLOPs vs Latency (V100)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$L$2:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>773313856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2898381312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2898381312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7848607744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7848607744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4392688640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4392688640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1512356096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142659232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>337522432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>328766720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1824545792</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3679251456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4135790592</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7868483584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11605993472</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4290232320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16541003776</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45596064</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153732800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>823440832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>351911296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15661685760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19830005760</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11457773568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22840098816</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1800000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4200000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9900000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19000000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inference Times'!$J$2:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.79371013405359203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5736544973989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.0380607138855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.081315813925599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.402897177270901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.879169635454101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.330924374950001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3128457639055497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4835372993197398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5211944461784697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3974432496998599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1847987194877598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8222761992796999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3494387082832899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.7189878259304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.8904045490195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4445639799919796</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.065641347739</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1162549451780901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2809625398159099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.15462672468988</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1406206914765802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7794433681472299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0998707607042402</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3579572424969903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.6473100516206</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.502676352303901</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.395713817135899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.0427086819358</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.123228825106999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.1197150301794</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.367724847345102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.9531382117726</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36.489063712890101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA7C-4D1E-BC6F-0EE7954C836D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="88762221"/>
+        <c:axId val="16919206"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88762221"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>#FLOPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16919206"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="16919206"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Inference Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88762221"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>599760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>758520</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,1090 +4535,1879 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA2CF01-603C-4244-A836-EBB98EE5D735}">
-  <dimension ref="A1:K62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>38.447992525410299</v>
       </c>
+      <c r="C2">
+        <v>29.821785021340499</v>
+      </c>
+      <c r="D2">
+        <v>53.301084627701897</v>
+      </c>
       <c r="F2">
+        <f t="shared" ref="F2:F35" si="0">AVERAGE(B2:E2)</f>
+        <v>40.523620724817569</v>
+      </c>
+      <c r="G2">
         <v>0.95429774829934499</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.2550786838735399</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.96864945098036304</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.79371013405359203</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <f t="shared" ref="K2:K35" si="1">AVERAGE(G2:J2)</f>
+        <v>0.99293400430170997</v>
+      </c>
+      <c r="L2">
         <v>773313856</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>61100840</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>144.19164425970399</v>
       </c>
+      <c r="C3">
+        <v>106.589981995057</v>
+      </c>
+      <c r="D3">
+        <v>277.71971689352</v>
+      </c>
       <c r="F3">
+        <f t="shared" si="0"/>
+        <v>176.16711438276033</v>
+      </c>
+      <c r="G3">
         <v>18.667536200880299</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>27.9943491200479</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>22.579256375350099</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>15.5736544973989</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>21.203699048419303</v>
+      </c>
+      <c r="L3">
         <v>2898381312</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>7978856</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>128.09415084793901</v>
       </c>
+      <c r="C4">
+        <v>107.75738698430401</v>
+      </c>
+      <c r="D4">
+        <v>261.73131497198199</v>
+      </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>165.86095093474168</v>
+      </c>
+      <c r="G4">
         <v>26.1962228855541</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>32.583985849139601</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>25.667802298919501</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>19.0380607138855</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>25.871517936874675</v>
+      </c>
+      <c r="L4">
         <v>2898381312</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>7978856</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>308.04229186874699</v>
       </c>
+      <c r="C5">
+        <v>266.471545997774</v>
+      </c>
+      <c r="D5">
+        <v>542.43912610086795</v>
+      </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>372.31765465579633</v>
+      </c>
+      <c r="G5">
         <v>26.002249171268399</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>38.612657799119503</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>45.576863387354997</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>21.081315813925599</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>32.818271542917131</v>
+      </c>
+      <c r="L5">
         <v>7848607744</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>28681000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>270.91002872068799</v>
       </c>
+      <c r="C6">
+        <v>253.39273500139799</v>
+      </c>
+      <c r="D6">
+        <v>521.95174435548302</v>
+      </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>348.75150269252299</v>
+      </c>
+      <c r="G6">
         <v>36.138445470988401</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>45.454712972789203</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>45.562460107643098</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>26.402897177270901</v>
       </c>
-      <c r="J6">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>38.389628932172897</v>
+      </c>
+      <c r="L6">
         <v>7848607744</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>28681000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>229.50034741696601</v>
       </c>
+      <c r="C7">
+        <v>166.252702008933</v>
+      </c>
+      <c r="D7">
+        <v>384.71231929542898</v>
+      </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>260.15512290710933</v>
+      </c>
+      <c r="G7">
         <v>32.166386228091199</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>48.621631408563303</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>43.683513035213899</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>26.879169635454101</v>
       </c>
-      <c r="J7">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>37.837675076830628</v>
+      </c>
+      <c r="L7">
         <v>4392688640</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>20013928</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>222.39812866946701</v>
       </c>
+      <c r="C8">
+        <v>167.982830025721</v>
+      </c>
+      <c r="D8">
+        <v>374.86446813451602</v>
+      </c>
       <c r="F8">
+        <f t="shared" si="0"/>
+        <v>255.08180894323468</v>
+      </c>
+      <c r="G8">
         <v>46.342714813125298</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>57.403224724289501</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>44.484957325330001</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>34.330924374950001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>45.6404553094237</v>
+      </c>
+      <c r="L8">
         <v>4392688640</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>20013928</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>85.426294309723701</v>
       </c>
+      <c r="C9">
+        <v>82.005447999108597</v>
+      </c>
+      <c r="D9">
+        <v>146.69743498799301</v>
+      </c>
       <c r="F9">
+        <f t="shared" si="0"/>
+        <v>104.70972576560844</v>
+      </c>
+      <c r="G9">
         <v>9.3750138319327991</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>12.224183124849899</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>9.7885308355341696</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>6.3128457639055497</v>
       </c>
-      <c r="J9">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>9.425143389055604</v>
+      </c>
+      <c r="L9">
         <v>1512356096</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>13004888</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>52.2652739779911</v>
       </c>
+      <c r="C10">
+        <v>13.456753484206301</v>
+      </c>
+      <c r="D10">
+        <v>184.97971425143999</v>
+      </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>83.56724723787913</v>
+      </c>
+      <c r="G10">
         <v>6.5507732220888597</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>8.9210429071628496</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>7.2819409219687703</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4.4835372993197398</v>
       </c>
-      <c r="J10">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>6.8093235876350553</v>
+      </c>
+      <c r="L10">
         <v>142659232</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>2220824</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>79.652880814325698</v>
       </c>
+      <c r="C11">
+        <v>23.626550479093599</v>
+      </c>
+      <c r="D11">
+        <v>367.195807766244</v>
+      </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>156.82507968655443</v>
+      </c>
+      <c r="G11">
         <v>6.6647685994396602</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>8.9026984461784</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7.3363241672669899</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4.5211944461784697</v>
       </c>
-      <c r="J11">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>6.8562464147658799</v>
+      </c>
+      <c r="L11">
         <v>337522432</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>4383312</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>74.761892412164997</v>
       </c>
+      <c r="C12">
+        <v>42.3725879809354</v>
+      </c>
+      <c r="D12">
+        <v>304.52114947956397</v>
+      </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>140.55187662422145</v>
+      </c>
+      <c r="G12">
         <v>6.46760098199276</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8.9519279019608007</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>7.2924495774309799</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4.3974432496998599</v>
       </c>
-      <c r="J12">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>6.7773554277711003</v>
+      </c>
+      <c r="L12">
         <v>328766720</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>3504872</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>54.495572518607702</v>
       </c>
+      <c r="C13">
+        <v>54.682735499227398</v>
+      </c>
+      <c r="D13">
+        <v>117.620273098479</v>
+      </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>75.59952703877137</v>
+      </c>
+      <c r="G13">
         <v>2.86315675830325</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>4.3501101336533896</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.3712997719087201</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2.1847987194877598</v>
       </c>
-      <c r="J13">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>3.1923413458382797</v>
+      </c>
+      <c r="L13">
         <v>1824545792</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>11689512</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>96.515466272108995</v>
       </c>
+      <c r="C14">
+        <v>98.712249542586505</v>
+      </c>
+      <c r="D14">
+        <v>193.43279231384599</v>
+      </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>129.55350270951382</v>
+      </c>
+      <c r="G14">
         <v>4.9774866910764697</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>7.7715283693477604</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5.8338830708282803</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.8222761992796999</v>
       </c>
-      <c r="J14">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>5.601293582633053</v>
+      </c>
+      <c r="L14">
         <v>3679251456</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>21797672</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>111.086527723489</v>
       </c>
+      <c r="C15">
+        <v>128.09902950539299</v>
+      </c>
+      <c r="D15">
+        <v>207.76479695757601</v>
+      </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>148.98345139548599</v>
+      </c>
+      <c r="G15">
         <v>6.7509360360143402</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10.674335338935499</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8.5590753545418803</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5.3494387082832899</v>
       </c>
-      <c r="J15">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>7.8334463594437524</v>
+      </c>
+      <c r="L15">
         <v>4135790592</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>25557032</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>182.31621090076001</v>
       </c>
+      <c r="C16">
+        <v>222.340257489122</v>
+      </c>
+      <c r="D16">
+        <v>347.752759567645</v>
+      </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>250.80307598584236</v>
+      </c>
+      <c r="G16">
         <v>13.2385538511405</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>20.652999681072401</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>16.476345335734099</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>10.7189878259304</v>
       </c>
-      <c r="J16">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>15.271721673469351</v>
+      </c>
+      <c r="L16">
         <v>7868483584</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>44549160</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>325.626876968386</v>
       </c>
+      <c r="C17">
+        <v>318.25166498310898</v>
+      </c>
+      <c r="D17">
+        <v>581.52748606884995</v>
+      </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>408.46867600678161</v>
+      </c>
+      <c r="G17">
         <v>23.4410615814324</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>30.628664025610199</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>41.908427466586502</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15.8904045490195</v>
       </c>
-      <c r="J17">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>27.967139405662152</v>
+      </c>
+      <c r="L17">
         <v>11605993472</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>60192808</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>148.16483246218499</v>
       </c>
+      <c r="C18">
+        <v>148.895063000964</v>
+      </c>
+      <c r="D18">
+        <v>248.44195324259601</v>
+      </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>181.83394956858169</v>
+      </c>
+      <c r="G18">
         <v>12.9787443945578</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>15.9017179511803</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>14.7030228083234</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9.4445639799919796</v>
       </c>
-      <c r="J18">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>13.257012283513372</v>
+      </c>
+      <c r="L18">
         <v>4290232320</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>25028904</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>488.06923498159102</v>
       </c>
+      <c r="C19">
+        <v>447.62285097385802</v>
+      </c>
+      <c r="D19">
+        <v>731.60775380303301</v>
+      </c>
       <c r="F19">
+        <f t="shared" si="0"/>
+        <v>555.76661325282737</v>
+      </c>
+      <c r="G19">
         <v>26.515830532212899</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>33.971628137655102</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>48.108387438975598</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>21.065641347739</v>
       </c>
-      <c r="J19">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>32.415371864145648</v>
+      </c>
+      <c r="L19">
         <v>16541003776</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>88791336</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>20.240724132453</v>
       </c>
+      <c r="C20">
+        <v>10.787413484649701</v>
+      </c>
+      <c r="D20">
+        <v>57.4339875900774</v>
+      </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>29.487375069060032</v>
+      </c>
+      <c r="G20">
         <v>8.8560292929171496</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>11.568757496198399</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>9.7420593917566691</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>6.1162549451780901</v>
       </c>
-      <c r="J20">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>9.0707752815125779</v>
+      </c>
+      <c r="L20">
         <v>45596064</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>1366792</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>33.129092272108799</v>
       </c>
+      <c r="C21">
+        <v>19.697823503520301</v>
+      </c>
+      <c r="D21">
+        <v>114.34451729382501</v>
+      </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>55.72381102315137</v>
+      </c>
+      <c r="G21">
         <v>9.0124303109243495</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>11.8990662132853</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>9.8100774677871296</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>6.2809625398159099</v>
       </c>
-      <c r="J21">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>9.2506341329531718</v>
+      </c>
+      <c r="L21">
         <v>153732800</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>2278604</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>41.809227701480502</v>
       </c>
+      <c r="C22">
+        <v>40.588112984551103</v>
+      </c>
+      <c r="D22">
+        <v>106.942920016012</v>
+      </c>
       <c r="F22">
+        <f t="shared" si="0"/>
+        <v>63.113420234014541</v>
+      </c>
+      <c r="G22">
         <v>2.6373162440976698</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4.1533875578230699</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3.4066941772708899</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2.15462672468988</v>
       </c>
-      <c r="J22">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>3.0880061759703774</v>
+      </c>
+      <c r="L22">
         <v>823440832</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>1248424</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>24.7978097631051</v>
       </c>
+      <c r="C23">
+        <v>22.906062484253201</v>
+      </c>
+      <c r="D23">
+        <v>59.588608566852599</v>
+      </c>
       <c r="F23">
+        <f t="shared" si="0"/>
+        <v>35.764160271403632</v>
+      </c>
+      <c r="G23">
         <v>2.6503467398959502</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>4.13371345618242</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>3.3629592569027702</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2.1406206914765802</v>
       </c>
-      <c r="J23">
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>3.0719100361144305</v>
+      </c>
+      <c r="L23">
         <v>351911296</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>1235496</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>348.273026342935</v>
       </c>
+      <c r="C24">
+        <v>384.18619753792899</v>
+      </c>
+      <c r="D24">
+        <v>687.14816012810002</v>
+      </c>
       <c r="F24">
+        <f t="shared" si="0"/>
+        <v>473.20246133632128</v>
+      </c>
+      <c r="G24">
         <v>2.3394446594637501</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3.4617990256102402</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.5952167118847198</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1.7794433681472299</v>
       </c>
-      <c r="J24">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>2.5439759412764849</v>
+      </c>
+      <c r="L24">
         <v>15661685760</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>138365984</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>469.672888296118</v>
       </c>
+      <c r="C25">
+        <v>470.18001499236601</v>
+      </c>
+      <c r="D25">
+        <v>820.10474603682803</v>
+      </c>
       <c r="F25">
+        <f t="shared" si="0"/>
+        <v>586.65254977510403</v>
+      </c>
+      <c r="G25">
         <v>2.7624482777110999</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>4.0504061320527702</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3.0574401760704402</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2.0998707607042402</v>
       </c>
-      <c r="J25">
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>2.9925413366346376</v>
+      </c>
+      <c r="L25">
         <v>19830005760</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>143678240</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>305.79541812405</v>
       </c>
+      <c r="C26">
+        <v>312.440003996016</v>
+      </c>
+      <c r="D26">
+        <v>413.26267437948502</v>
+      </c>
       <c r="F26">
+        <f t="shared" si="0"/>
+        <v>343.83269883318371</v>
+      </c>
+      <c r="G26">
         <v>8.0215366202480691</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>10.900377278911501</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>8.6063877306923295</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5.3579572424969903</v>
       </c>
-      <c r="J26">
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>8.2215647180872224</v>
+      </c>
+      <c r="L26">
         <v>11457773568</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>68883240</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>549.58720768307103</v>
       </c>
+      <c r="C27">
+        <v>596.69981000479299</v>
+      </c>
+      <c r="D27">
+        <v>726.38974723779995</v>
+      </c>
       <c r="F27">
+        <f t="shared" si="0"/>
+        <v>624.22558830855462</v>
+      </c>
+      <c r="G27">
         <v>15.6732131928771</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>20.8544881960784</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>16.629771160464301</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>10.6473100516206</v>
       </c>
-      <c r="J27">
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>15.9511956502601</v>
+      </c>
+      <c r="L27">
         <v>22840098816</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>126886696</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>123.884093346138</v>
       </c>
+      <c r="C28">
+        <v>44.295777013758197</v>
+      </c>
+      <c r="D28">
+        <v>465.58358198554902</v>
+      </c>
       <c r="F28">
+        <f t="shared" si="0"/>
+        <v>211.25448411514841</v>
+      </c>
+      <c r="G28">
         <v>11.1746276002401</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>20.4856258835533</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>11.6101601916767</v>
       </c>
-      <c r="J28" s="4">
-        <v>332069760</v>
+      <c r="J28">
+        <v>12.502676352303901</v>
       </c>
       <c r="K28">
+        <f t="shared" si="1"/>
+        <v>13.943272506943501</v>
+      </c>
+      <c r="L28" s="2">
+        <v>39000000</v>
+      </c>
+      <c r="M28">
         <v>1323016</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>173.11769361975101</v>
+      </c>
+      <c r="C29">
+        <v>62.750544020673303</v>
+      </c>
+      <c r="D29">
+        <v>754.828385268224</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>330.23220763621612</v>
+      </c>
+      <c r="G29">
+        <v>15.730801102440999</v>
+      </c>
+      <c r="H29">
+        <v>28.9183147318927</v>
+      </c>
+      <c r="I29">
+        <v>16.460109679471699</v>
+      </c>
+      <c r="J29">
+        <v>17.395713817135899</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>19.626234832735324</v>
+      </c>
+      <c r="L29" s="2">
+        <v>70000000</v>
+      </c>
+      <c r="M29">
+        <v>1343048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>186.37204630698699</v>
+      </c>
+      <c r="C30">
+        <v>67.192752030678093</v>
+      </c>
+      <c r="D30">
+        <v>848.668993674935</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>367.41126400420006</v>
+      </c>
+      <c r="G30">
+        <v>15.733345510204</v>
+      </c>
+      <c r="H30">
+        <v>28.867110552621</v>
+      </c>
+      <c r="I30">
+        <v>16.300956208883498</v>
+      </c>
+      <c r="J30">
+        <v>17.0427086819358</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>19.486030238411075</v>
+      </c>
+      <c r="L30" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="M30">
+        <v>1476568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>248.22679477492801</v>
+      </c>
+      <c r="C31">
+        <v>91.900116007309407</v>
+      </c>
+      <c r="D31">
+        <v>1109.29166989591</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>483.13952689271582</v>
+      </c>
+      <c r="G31">
+        <v>17.8138328739496</v>
+      </c>
+      <c r="H31">
+        <v>32.814861529811601</v>
+      </c>
+      <c r="I31">
+        <v>18.222282973189301</v>
+      </c>
+      <c r="J31">
+        <v>19.123228825106999</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>21.993551550514375</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1800000000</v>
+      </c>
+      <c r="M31">
+        <v>1624296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>328.32962199680298</v>
+      </c>
+      <c r="C32">
+        <v>126.20211503235601</v>
+      </c>
+      <c r="D32">
+        <v>1682.2084723779001</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>712.24673646901965</v>
+      </c>
+      <c r="G32">
+        <v>21.886404644257802</v>
+      </c>
+      <c r="H32">
+        <v>40.240047921168497</v>
+      </c>
+      <c r="I32">
+        <v>31.658265776201699</v>
+      </c>
+      <c r="J32">
+        <v>22.1197150301794</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>28.976108342951846</v>
+      </c>
+      <c r="L32" s="2">
+        <v>4200000000</v>
+      </c>
+      <c r="M32">
+        <v>1918200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>496.556669158082</v>
+      </c>
+      <c r="C33">
+        <v>186.377885489492</v>
+      </c>
+      <c r="D33">
+        <v>2626.2150995196398</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1103.0498847224046</v>
+      </c>
+      <c r="G33">
+        <v>26.985556392557001</v>
+      </c>
+      <c r="H33">
+        <v>49.948047434573802</v>
+      </c>
+      <c r="I33">
+        <v>42.658096031785497</v>
+      </c>
+      <c r="J33">
+        <v>27.367724847345102</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>36.739856176565354</v>
+      </c>
+      <c r="L33" s="2">
+        <v>9900000000</v>
+      </c>
+      <c r="M33">
+        <v>2221736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>665.40067127381496</v>
+      </c>
+      <c r="C34">
+        <v>248.770319478353</v>
+      </c>
+      <c r="D34">
+        <v>3927.17945268213</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1613.7834811447658</v>
+      </c>
+      <c r="G34">
+        <v>31.345812664665999</v>
+      </c>
+      <c r="H34">
+        <v>58.031846491796699</v>
+      </c>
+      <c r="I34">
+        <v>55.667983900223398</v>
+      </c>
+      <c r="J34">
+        <v>30.9531382117726</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>43.999695317114671</v>
+      </c>
+      <c r="L34" s="2">
+        <v>19000000000</v>
+      </c>
+      <c r="M34">
+        <v>2529432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3">
+        <v>872.61483645393901</v>
+      </c>
+      <c r="C35" s="3">
+        <v>346.78357551456401</v>
+      </c>
+      <c r="D35" s="3">
+        <v>6462.0216742993898</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>2560.4733620892976</v>
+      </c>
+      <c r="G35" s="3">
+        <v>37.767045755902402</v>
+      </c>
+      <c r="H35" s="3">
+        <v>71.703431565825994</v>
+      </c>
+      <c r="I35">
+        <v>73.213292982707998</v>
+      </c>
+      <c r="J35">
+        <v>36.489063712890101</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>54.793208504331623</v>
+      </c>
+      <c r="L35" s="2">
+        <v>37000000000</v>
+      </c>
+      <c r="M35">
+        <v>2871720</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F29">
-        <v>15.730801102440999</v>
-      </c>
-      <c r="G29">
-        <v>28.9183147318927</v>
-      </c>
-      <c r="H29">
-        <v>16.460109679471699</v>
-      </c>
-      <c r="J29" s="4">
-        <v>449659520</v>
-      </c>
-      <c r="K29">
-        <v>1343048</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30">
-        <v>15.733345510204</v>
-      </c>
-      <c r="G30">
-        <v>28.867110552621</v>
-      </c>
-      <c r="H30">
-        <v>16.300956208883498</v>
-      </c>
-      <c r="J30" s="4">
-        <v>472536960</v>
-      </c>
-      <c r="K30">
-        <v>1476568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31">
-        <v>17.8138328739496</v>
-      </c>
-      <c r="G31">
-        <v>32.814861529811601</v>
-      </c>
-      <c r="H31">
-        <v>18.222282973189301</v>
-      </c>
-      <c r="J31" s="4">
-        <v>620303040</v>
-      </c>
-      <c r="K31">
-        <v>1624296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32">
-        <v>21.886404644257802</v>
-      </c>
-      <c r="G32">
-        <v>40.240047921168497</v>
-      </c>
-      <c r="H32">
-        <v>31.658265776201699</v>
-      </c>
-      <c r="J32" s="4">
-        <v>807259520</v>
-      </c>
-      <c r="K32">
-        <v>1918200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33">
-        <v>26.985556392557001</v>
-      </c>
-      <c r="G33">
-        <v>49.948047434573802</v>
-      </c>
-      <c r="H33">
-        <v>42.658096031785497</v>
-      </c>
-      <c r="J33" s="4">
-        <v>1100316160</v>
-      </c>
-      <c r="K33">
-        <v>2221736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34">
-        <v>31.345812664665999</v>
-      </c>
-      <c r="G34">
-        <v>58.031846491796699</v>
-      </c>
-      <c r="K34">
-        <v>2529432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="5">
-        <v>37.767045755902402</v>
-      </c>
-      <c r="G35" s="5">
-        <v>71.703431565825994</v>
-      </c>
-      <c r="K35">
-        <v>2871720</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B37">
         <v>638.25682178191198</v>
       </c>
+      <c r="C37">
+        <v>1948.48849950358</v>
+      </c>
+      <c r="D37">
+        <v>823.60251433146504</v>
+      </c>
       <c r="F37">
+        <f>AVERAGE(B37:E37)</f>
+        <v>1136.782611872319</v>
+      </c>
+      <c r="G37">
         <v>7.4137103877549899</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>13.9809215842337</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>7.8177866990795897</v>
       </c>
       <c r="J37">
+        <v>5.99939987829634</v>
+      </c>
+      <c r="K37">
+        <f>AVERAGE(G37:J37)</f>
+        <v>8.8029546373411556</v>
+      </c>
+      <c r="L37">
         <v>31417745408</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>39638868</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>998.59008623417196</v>
+      </c>
+      <c r="C38">
+        <v>2835.4362160025598</v>
+      </c>
+      <c r="D38">
+        <v>1229.79948406725</v>
       </c>
       <c r="F38">
+        <f>AVERAGE(B38:E38)</f>
+        <v>1687.9419287679939</v>
+      </c>
+      <c r="G38">
         <v>13.451112322128701</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>25.8550853733495</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>13.974496777510801</v>
       </c>
       <c r="J38">
+        <v>13.607856400516701</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE(G38:J38)</f>
+        <v>16.722137718376427</v>
+      </c>
+      <c r="L38">
         <v>46348513280</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>58630996</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>479.86024903081301</v>
       </c>
+      <c r="C39">
+        <v>1113.97442399175</v>
+      </c>
+      <c r="D39">
+        <v>711.78215860688601</v>
+      </c>
       <c r="F39">
+        <f>AVERAGE(B39:E39)</f>
+        <v>768.5389438764829</v>
+      </c>
+      <c r="G39">
         <v>6.4490924513805901</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>12.4217329879951</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>6.7765292941176201</v>
       </c>
       <c r="J39">
+        <v>5.2871328136440496</v>
+      </c>
+      <c r="K39">
+        <f>AVERAGE(G39:J39)</f>
+        <v>7.7336218867843396</v>
+      </c>
+      <c r="L39">
         <v>26586873856</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>32957012</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>867.35038746738599</v>
       </c>
+      <c r="C40">
+        <v>2045.18642948824</v>
+      </c>
+      <c r="D40" s="4">
+        <v>4920.94925940752</v>
+      </c>
       <c r="F40">
+        <f>AVERAGE(B40:E40)</f>
+        <v>2611.1620254543818</v>
+      </c>
+      <c r="G40">
         <v>12.800786949980001</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>24.308182447378901</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>13.3578155142055</v>
       </c>
       <c r="J40">
+        <v>13.956604503086201</v>
+      </c>
+      <c r="K40">
+        <f>AVERAGE(G40:J40)</f>
+        <v>16.10584735366265</v>
+      </c>
+      <c r="L40">
         <v>43372367872</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>54314344</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5">
         <f>AVERAGE(B2:B27)</f>
         <v>185.89504007559907</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3">
-        <f>AVERAGE(F2:F27)</f>
+      <c r="C58" s="5">
+        <f>AVERAGE(C2:C27)</f>
+        <v>174.45459988308497</v>
+      </c>
+      <c r="D58" s="5">
+        <f>AVERAGE(D2:D27)</f>
+        <v>339.74911758329796</v>
+      </c>
+      <c r="E58" s="5" t="e">
+        <f>AVERAGE(E2:E27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5">
+        <f>AVERAGE(G2:G27)</f>
         <v>13.778636320635918</v>
       </c>
+      <c r="H58" s="5">
+        <f>AVERAGE(H2:H27)</f>
+        <v>18.688402766598895</v>
+      </c>
+      <c r="I58" s="5">
+        <f>AVERAGE(I2:I27)</f>
+        <v>17.553607492412333</v>
+      </c>
+      <c r="J58" s="5">
+        <f>AVERAGE(J2:J27)</f>
+        <v>10.341073490765515</v>
+      </c>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5">
+        <f>AVERAGE(L2:L27)</f>
+        <v>5941673831.3846149</v>
+      </c>
+      <c r="M58" s="5">
+        <f>AVERAGE(M2:M27)</f>
+        <v>36888930.92307692</v>
+      </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="2">
+        <v>54</v>
+      </c>
+      <c r="B59" s="6">
         <f>B61-B62</f>
         <v>529.34648355061802</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2">
-        <f>F61-F62</f>
+      <c r="C59" s="6">
+        <f>C61-C62</f>
+        <v>585.91239652014326</v>
+      </c>
+      <c r="D59" s="6">
+        <f>D61-D62</f>
+        <v>766.80366140912611</v>
+      </c>
+      <c r="E59" s="6">
+        <f>E61-E62</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6">
+        <f>G61-G62</f>
         <v>45.388417064825951</v>
       </c>
+      <c r="H59" s="6">
+        <f>H61-H62</f>
+        <v>56.148146040415959</v>
+      </c>
+      <c r="I59" s="6">
+        <f>I61-I62</f>
+        <v>47.139737987995233</v>
+      </c>
+      <c r="J59" s="6">
+        <f>J61-J62</f>
+        <v>33.537214240896411</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6">
+        <f>L61-L62</f>
+        <v>22794502752</v>
+      </c>
+      <c r="M59" s="6">
+        <f>M61-M62</f>
+        <v>142442744</v>
+      </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="2">
+        <v>55</v>
+      </c>
+      <c r="B60" s="6">
         <f>_xlfn.STDEV.P(B2:B27)</f>
         <v>151.6510224151713</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2">
-        <f>_xlfn.STDEV.P(F2:F27)</f>
+      <c r="C60" s="6">
+        <f>_xlfn.STDEV.P(C2:C27)</f>
+        <v>159.36336116546411</v>
+      </c>
+      <c r="D60" s="6">
+        <f>_xlfn.STDEV.P(D2:D27)</f>
+        <v>224.53718981967938</v>
+      </c>
+      <c r="E60" s="6" t="e">
+        <f>_xlfn.STDEV.P(E2:E27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6">
+        <f>_xlfn.STDEV.P(G2:G27)</f>
         <v>11.852536853433548</v>
       </c>
+      <c r="H60" s="6">
+        <f>_xlfn.STDEV.P(H2:H27)</f>
+        <v>15.476682049490606</v>
+      </c>
+      <c r="I60" s="6">
+        <f>_xlfn.STDEV.P(I2:I27)</f>
+        <v>16.067447362381788</v>
+      </c>
+      <c r="J60" s="6">
+        <f>_xlfn.STDEV.P(J2:J27)</f>
+        <v>9.0971218994417971</v>
+      </c>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6">
+        <f>_xlfn.STDEV.P(L2:L27)</f>
+        <v>6441214410.3069229</v>
+      </c>
+      <c r="M60" s="6">
+        <f>_xlfn.STDEV.P(M2:M27)</f>
+        <v>42588748.940678485</v>
+      </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5">
         <f>MAX(B2:B27)</f>
         <v>549.58720768307103</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3">
-        <f>MAX(F2:F27)</f>
+      <c r="C61" s="5">
+        <f>MAX(C2:C27)</f>
+        <v>596.69981000479299</v>
+      </c>
+      <c r="D61" s="5">
+        <f>MAX(D2:D27)</f>
+        <v>820.10474603682803</v>
+      </c>
+      <c r="E61" s="5">
+        <f>MAX(E2:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5">
+        <f>MAX(G2:G27)</f>
         <v>46.342714813125298</v>
       </c>
+      <c r="H61" s="5">
+        <f>MAX(H2:H27)</f>
+        <v>57.403224724289501</v>
+      </c>
+      <c r="I61" s="5">
+        <f>MAX(I2:I27)</f>
+        <v>48.108387438975598</v>
+      </c>
+      <c r="J61" s="5">
+        <f>MAX(J2:J27)</f>
+        <v>34.330924374950001</v>
+      </c>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5">
+        <f>MAX(L2:L27)</f>
+        <v>22840098816</v>
+      </c>
+      <c r="M61" s="5">
+        <f>MAX(M2:M27)</f>
+        <v>143678240</v>
+      </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="5">
         <f>MIN(B2:B27)</f>
         <v>20.240724132453</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3">
-        <f>MIN(F2:F27)</f>
+      <c r="C62" s="5">
+        <f>MIN(C2:C27)</f>
+        <v>10.787413484649701</v>
+      </c>
+      <c r="D62" s="5">
+        <f>MIN(D2:D27)</f>
+        <v>53.301084627701897</v>
+      </c>
+      <c r="E62" s="5">
+        <f>MIN(E2:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5">
+        <f>MIN(G2:G27)</f>
         <v>0.95429774829934499</v>
+      </c>
+      <c r="H62" s="5">
+        <f>MIN(H2:H27)</f>
+        <v>1.2550786838735399</v>
+      </c>
+      <c r="I62" s="5">
+        <f>MIN(I2:I27)</f>
+        <v>0.96864945098036304</v>
+      </c>
+      <c r="J62" s="5">
+        <f>MIN(J2:J27)</f>
+        <v>0.79371013405359203</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5">
+        <f>MIN(L2:L27)</f>
+        <v>45596064</v>
+      </c>
+      <c r="M62" s="5">
+        <f>MIN(M2:M27)</f>
+        <v>1235496</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>